--- a/biology/Biologie cellulaire et moléculaire/Microphthalmia-associated_transcription_factor/Microphthalmia-associated_transcription_factor.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Microphthalmia-associated_transcription_factor/Microphthalmia-associated_transcription_factor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le facteur de transcription associé à la microphtalmie (en anglais, Microphtalmia-associated Transcription Factor abrégé en MITF) est un facteur de transcription en hélice-boucle-hélice impliqué dans le développement mélanocytaire et la survie de ces cellules[5],[6]. Son gène, MITF, est situé sur le chromosome 3 humain.
-Il pourrait réguler le gène IRF4 dans les mélanocytes[7].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le facteur de transcription associé à la microphtalmie (en anglais, Microphtalmia-associated Transcription Factor abrégé en MITF) est un facteur de transcription en hélice-boucle-hélice impliqué dans le développement mélanocytaire et la survie de ces cellules,. Son gène, MITF, est situé sur le chromosome 3 humain.
+Il pourrait réguler le gène IRF4 dans les mélanocytes.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>En médecine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une mutation du gène entraînant une perte de fonction de la protéine provoque un syndrome de Waardenburg de type 2A. D'autres mutations de ce gène est retrouvé dans certains cas de mélanome malin[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une mutation du gène entraînant une perte de fonction de la protéine provoque un syndrome de Waardenburg de type 2A. D'autres mutations de ce gène est retrouvé dans certains cas de mélanome malin.
 </t>
         </is>
       </c>
